--- a/Code/Results/Cases/Case_6_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_58/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.42556728881533</v>
+        <v>5.4255672888155</v>
       </c>
       <c r="C2">
-        <v>1.657490994985494</v>
+        <v>1.657490994985551</v>
       </c>
       <c r="D2">
-        <v>0.05082216262537997</v>
+        <v>0.05082216262535866</v>
       </c>
       <c r="E2">
-        <v>1.500674858302389</v>
+        <v>1.500674858302361</v>
       </c>
       <c r="F2">
         <v>2.929623819931095</v>
       </c>
       <c r="G2">
-        <v>0.0007428586351359368</v>
+        <v>0.0007428586350782992</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7864845236145612</v>
+        <v>0.7864845236145328</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>4.643354368701296</v>
       </c>
       <c r="C3">
-        <v>1.41633121459904</v>
+        <v>1.416331214599097</v>
       </c>
       <c r="D3">
-        <v>0.04622986808635687</v>
+        <v>0.04622986808623608</v>
       </c>
       <c r="E3">
-        <v>1.271738881113848</v>
+        <v>1.271738881113876</v>
       </c>
       <c r="F3">
-        <v>2.549154502227935</v>
+        <v>2.549154502227964</v>
       </c>
       <c r="G3">
-        <v>0.0007550605196018356</v>
+        <v>0.0007550605194857617</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.17596231016455</v>
+        <v>4.175962310164721</v>
       </c>
       <c r="C4">
         <v>1.272310542375919</v>
       </c>
       <c r="D4">
-        <v>0.04372265169141087</v>
+        <v>0.04372265169139666</v>
       </c>
       <c r="E4">
-        <v>1.136682340159595</v>
+        <v>1.136682340159638</v>
       </c>
       <c r="F4">
-        <v>2.325642226844508</v>
+        <v>2.325642226844522</v>
       </c>
       <c r="G4">
-        <v>0.0007626502162208129</v>
+        <v>0.0007626502162749738</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8226923386850729</v>
+        <v>0.8226923386850515</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.988191333683972</v>
+        <v>3.988191333683915</v>
       </c>
       <c r="C5">
         <v>1.214459366301014</v>
       </c>
       <c r="D5">
-        <v>0.04276811338215936</v>
+        <v>0.0427681133824791</v>
       </c>
       <c r="E5">
-        <v>1.082780939313224</v>
+        <v>1.082780939313196</v>
       </c>
       <c r="F5">
         <v>2.236726706892398</v>
       </c>
       <c r="G5">
-        <v>0.0007657731276338591</v>
+        <v>0.0007657731276313751</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8295063408871854</v>
+        <v>0.8295063408872281</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.957160301038584</v>
+        <v>3.957160301038869</v>
       </c>
       <c r="C6">
-        <v>1.204899052878375</v>
+        <v>1.204899052878147</v>
       </c>
       <c r="D6">
-        <v>0.04261336900144386</v>
+        <v>0.04261336900133017</v>
       </c>
       <c r="E6">
-        <v>1.073892618729886</v>
+        <v>1.073892618729843</v>
       </c>
       <c r="F6">
-        <v>2.222083345723277</v>
+        <v>2.222083345723263</v>
       </c>
       <c r="G6">
-        <v>0.0007662936459557106</v>
+        <v>0.0007662936459570534</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8306703964296958</v>
+        <v>0.8306703964296744</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.173419721123253</v>
+        <v>4.17341972112331</v>
       </c>
       <c r="C7">
-        <v>1.271527166919441</v>
+        <v>1.271527166919157</v>
       </c>
       <c r="D7">
-        <v>0.04370952029492514</v>
+        <v>0.04370952029491804</v>
       </c>
       <c r="E7">
-        <v>1.135951113556885</v>
+        <v>1.135951113556857</v>
       </c>
       <c r="F7">
         <v>2.32443475940984</v>
       </c>
       <c r="G7">
-        <v>0.0007626922046230742</v>
+        <v>0.0007626922045646332</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8227820138082578</v>
+        <v>0.8227820138082933</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.152831330387016</v>
+        <v>5.152831330387073</v>
       </c>
       <c r="C8">
-        <v>1.573380836188335</v>
+        <v>1.57338083618879</v>
       </c>
       <c r="D8">
-        <v>0.04916644379369473</v>
+        <v>0.04916644379390789</v>
       </c>
       <c r="E8">
-        <v>1.42042994350102</v>
+        <v>1.420429943501006</v>
       </c>
       <c r="F8">
         <v>2.796101775785814</v>
       </c>
       <c r="G8">
-        <v>0.0007470491204662333</v>
+        <v>0.0007470491205258695</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7931222802947957</v>
+        <v>0.7931222802947246</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>7.205285102802918</v>
       </c>
       <c r="C9">
-        <v>2.20729691199233</v>
+        <v>2.207296911992273</v>
       </c>
       <c r="D9">
-        <v>0.06297667929942463</v>
+        <v>0.06297667929959516</v>
       </c>
       <c r="E9">
-        <v>2.035967584893314</v>
+        <v>2.035967584893328</v>
       </c>
       <c r="F9">
-        <v>3.821242214016792</v>
+        <v>3.821242214016763</v>
       </c>
       <c r="G9">
-        <v>0.000716851151854869</v>
+        <v>0.0007168511519292466</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.845070618065733</v>
+        <v>8.845070618065961</v>
       </c>
       <c r="C10">
-        <v>2.715872661532558</v>
+        <v>2.715872661532785</v>
       </c>
       <c r="D10">
-        <v>0.07614627296960919</v>
+        <v>0.07614627296960208</v>
       </c>
       <c r="E10">
-        <v>2.54859110580405</v>
+        <v>2.548591105804121</v>
       </c>
       <c r="F10">
         <v>4.670462671245957</v>
       </c>
       <c r="G10">
-        <v>0.0006944369680268894</v>
+        <v>0.0006944369681781018</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7528293776041579</v>
+        <v>0.7528293776041437</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.635327468372907</v>
+        <v>9.635327468373021</v>
       </c>
       <c r="C11">
-        <v>2.961833196994064</v>
+        <v>2.961833196994235</v>
       </c>
       <c r="D11">
-        <v>0.08315016197146008</v>
+        <v>0.08315016197219194</v>
       </c>
       <c r="E11">
-        <v>2.802993401041775</v>
+        <v>2.802993401041761</v>
       </c>
       <c r="F11">
-        <v>5.088280900816784</v>
+        <v>5.088280900816756</v>
       </c>
       <c r="G11">
-        <v>0.0006840318688486417</v>
+        <v>0.0006840318689269082</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7565430283087267</v>
+        <v>0.7565430283087125</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.942721393125339</v>
+        <v>9.942721393125453</v>
       </c>
       <c r="C12">
-        <v>3.057677624728342</v>
+        <v>3.057677624728683</v>
       </c>
       <c r="D12">
-        <v>0.08598976115066392</v>
+        <v>0.08598976115047208</v>
       </c>
       <c r="E12">
-        <v>2.903338625034067</v>
+        <v>2.903338625034053</v>
       </c>
       <c r="F12">
-        <v>5.252233081931422</v>
+        <v>5.252233081931365</v>
       </c>
       <c r="G12">
-        <v>0.0006800435770298344</v>
+        <v>0.0006800435769535976</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7590458739257429</v>
+        <v>0.7590458739257286</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.876122751648495</v>
+        <v>9.876122751648381</v>
       </c>
       <c r="C13">
-        <v>3.036903934506995</v>
+        <v>3.036903934506654</v>
       </c>
       <c r="D13">
-        <v>0.08536905832978903</v>
+        <v>0.08536905832958297</v>
       </c>
       <c r="E13">
         <v>2.881530403350837</v>
       </c>
       <c r="F13">
-        <v>5.216645060778347</v>
+        <v>5.216645060778319</v>
       </c>
       <c r="G13">
-        <v>0.0006809050137577111</v>
+        <v>0.0006809050137067865</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7584541271926639</v>
+        <v>0.7584541271926497</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.660441818224058</v>
+        <v>9.660441818224172</v>
       </c>
       <c r="C14">
-        <v>2.969660065185963</v>
+        <v>2.969660065185394</v>
       </c>
       <c r="D14">
-        <v>0.0833797352258685</v>
+        <v>0.0833797352258614</v>
       </c>
       <c r="E14">
-        <v>2.81116187564318</v>
+        <v>2.811161875643194</v>
       </c>
       <c r="F14">
-        <v>5.101646289517589</v>
+        <v>5.101646289517674</v>
       </c>
       <c r="G14">
-        <v>0.0006837048367658346</v>
+        <v>0.0006837048367093849</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7567255640578594</v>
+        <v>0.7567255640579162</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.529452400162995</v>
+        <v>9.529452400163109</v>
       </c>
       <c r="C15">
-        <v>2.928844443098171</v>
+        <v>2.928844443097944</v>
       </c>
       <c r="D15">
-        <v>0.08218708367445515</v>
+        <v>0.082187083674512</v>
       </c>
       <c r="E15">
-        <v>2.768615060479164</v>
+        <v>2.76861506047922</v>
       </c>
       <c r="F15">
-        <v>5.031994523931161</v>
+        <v>5.031994523931132</v>
       </c>
       <c r="G15">
-        <v>0.0006854129160742401</v>
+        <v>0.0006854129161260047</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7558167176100596</v>
+        <v>0.7558167176101023</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>8.794457293623168</v>
       </c>
       <c r="C16">
-        <v>2.70014025592593</v>
+        <v>2.700140255925419</v>
       </c>
       <c r="D16">
-        <v>0.07571221592354505</v>
+        <v>0.0757122159237511</v>
       </c>
       <c r="E16">
-        <v>2.532467176579075</v>
+        <v>2.532467176579132</v>
       </c>
       <c r="F16">
-        <v>4.643886553724286</v>
+        <v>4.643886553724315</v>
       </c>
       <c r="G16">
-        <v>0.0006951113348238684</v>
+        <v>0.0006951113347688013</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.356022400313066</v>
+        <v>8.356022400313179</v>
       </c>
       <c r="C17">
-        <v>2.563957169613559</v>
+        <v>2.563957169613616</v>
       </c>
       <c r="D17">
-        <v>0.07202542800547462</v>
+        <v>0.07202542800560252</v>
       </c>
       <c r="E17">
-        <v>2.393621210379507</v>
+        <v>2.393621210379479</v>
       </c>
       <c r="F17">
-        <v>4.414620018045838</v>
+        <v>4.414620018045866</v>
       </c>
       <c r="G17">
-        <v>0.0007009962013765882</v>
+        <v>0.000700996201373643</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7525477316189608</v>
+        <v>0.7525477316190035</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.107887273911672</v>
+        <v>8.107887273911615</v>
       </c>
       <c r="C18">
         <v>2.486958669987928</v>
       </c>
       <c r="D18">
-        <v>0.06999712707502681</v>
+        <v>0.06999712707515471</v>
       </c>
       <c r="E18">
-        <v>2.315684977685507</v>
+        <v>2.315684977685592</v>
       </c>
       <c r="F18">
-        <v>4.285629043112721</v>
+        <v>4.285629043112692</v>
       </c>
       <c r="G18">
-        <v>0.0007043627008116036</v>
+        <v>0.0007043627007559605</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.024520789632447</v>
+        <v>8.024520789632618</v>
       </c>
       <c r="C19">
-        <v>2.461101078302192</v>
+        <v>2.46110107830242</v>
       </c>
       <c r="D19">
         <v>0.06932514880028862</v>
       </c>
       <c r="E19">
-        <v>2.289603132477879</v>
+        <v>2.289603132477851</v>
       </c>
       <c r="F19">
-        <v>4.242417599886011</v>
+        <v>4.242417599886039</v>
       </c>
       <c r="G19">
-        <v>0.0007054998639349612</v>
+        <v>0.0007054998639371195</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7532610333759919</v>
+        <v>0.7532610333760061</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.402265041588578</v>
+        <v>8.402265041588464</v>
       </c>
       <c r="C20">
-        <v>2.578312564996168</v>
+        <v>2.578312564996224</v>
       </c>
       <c r="D20">
-        <v>0.07240808399715348</v>
+        <v>0.07240808399684795</v>
       </c>
       <c r="E20">
         <v>2.408196456311927</v>
       </c>
       <c r="F20">
-        <v>4.438720399870192</v>
+        <v>4.438720399870306</v>
       </c>
       <c r="G20">
-        <v>0.0007003717580693625</v>
+        <v>0.000700371758192806</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7525068261532226</v>
+        <v>0.75250682615318</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.723554924146129</v>
+        <v>9.723554924146242</v>
       </c>
       <c r="C21">
         <v>2.989332102140054</v>
       </c>
       <c r="D21">
-        <v>0.08395856287260983</v>
+        <v>0.08395856287238246</v>
       </c>
       <c r="E21">
         <v>2.831712771079808</v>
       </c>
       <c r="F21">
-        <v>5.135257270091927</v>
+        <v>5.135257270091955</v>
       </c>
       <c r="G21">
-        <v>0.0006828839377161772</v>
+        <v>0.0006828839377143962</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7572015786312392</v>
+        <v>0.7572015786313102</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.63578271843812</v>
+        <v>10.63578271843801</v>
       </c>
       <c r="C22">
-        <v>3.274147945324955</v>
+        <v>3.274147945324557</v>
       </c>
       <c r="D22">
-        <v>0.09262991615147342</v>
+        <v>0.09262991615163685</v>
       </c>
       <c r="E22">
-        <v>3.132579335034947</v>
+        <v>3.13257933503499</v>
       </c>
       <c r="F22">
-        <v>5.624745307471215</v>
+        <v>5.624745307471187</v>
       </c>
       <c r="G22">
-        <v>0.0006711614423949102</v>
+        <v>0.0006711614423943093</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7668059676701944</v>
+        <v>0.7668059676701375</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>10.14372403759216</v>
       </c>
       <c r="C23">
-        <v>3.120403996103391</v>
+        <v>3.120403996103335</v>
       </c>
       <c r="D23">
-        <v>0.08788155079363946</v>
+        <v>0.08788155079380289</v>
       </c>
       <c r="E23">
-        <v>2.969389340965051</v>
+        <v>2.969389340965037</v>
       </c>
       <c r="F23">
         <v>5.359864553662931</v>
       </c>
       <c r="G23">
-        <v>0.0006774523018973198</v>
+        <v>0.0006774523018979739</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.381346638110585</v>
+        <v>8.381346638110699</v>
       </c>
       <c r="C24">
-        <v>2.571818500198845</v>
+        <v>2.571818500199072</v>
       </c>
       <c r="D24">
-        <v>0.07223480385324166</v>
+        <v>0.07223480385280112</v>
       </c>
       <c r="E24">
         <v>2.401601174099241</v>
       </c>
       <c r="F24">
-        <v>4.427815927461666</v>
+        <v>4.427815927461694</v>
       </c>
       <c r="G24">
-        <v>0.0007006541199418933</v>
+        <v>0.0007006541199592535</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7525235666082608</v>
+        <v>0.7525235666083319</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.631268494383676</v>
+        <v>6.631268494383733</v>
       </c>
       <c r="C25">
         <v>2.029757027998585</v>
       </c>
       <c r="D25">
-        <v>0.05880737944626446</v>
+        <v>0.05880737944612235</v>
       </c>
       <c r="E25">
         <v>1.86104022343963</v>
       </c>
       <c r="F25">
-        <v>3.530022729715682</v>
+        <v>3.530022729715739</v>
       </c>
       <c r="G25">
-        <v>0.000725016210753604</v>
+        <v>0.0007250162108062833</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.4255672888155</v>
+        <v>2.9966996069532</v>
       </c>
       <c r="C2">
-        <v>1.657490994985551</v>
+        <v>1.156917478494364</v>
       </c>
       <c r="D2">
-        <v>0.05082216262535866</v>
+        <v>0.0114819435364204</v>
       </c>
       <c r="E2">
-        <v>1.500674858302361</v>
+        <v>1.43900959886858</v>
       </c>
       <c r="F2">
-        <v>2.929623819931095</v>
+        <v>0.9518068714633756</v>
       </c>
       <c r="G2">
-        <v>0.0007428586350782992</v>
+        <v>0.8974281458001059</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01989866865855516</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.51635186465262</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3543204419373609</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7864845236145328</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.56037868356972</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.643354368701296</v>
+        <v>2.600698824971062</v>
       </c>
       <c r="C3">
-        <v>1.416331214599097</v>
+        <v>1.005436972696742</v>
       </c>
       <c r="D3">
-        <v>0.04622986808623608</v>
+        <v>0.01111827334049664</v>
       </c>
       <c r="E3">
-        <v>1.271738881113876</v>
+        <v>1.233109108666511</v>
       </c>
       <c r="F3">
-        <v>2.549154502227964</v>
+        <v>0.8458397521930578</v>
       </c>
       <c r="G3">
-        <v>0.0007550605194857617</v>
+        <v>0.7926330485199173</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01437554417266096</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4740977887499866</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3335024851272692</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8073639906450012</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.586708392411289</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.175962310164721</v>
+        <v>2.357809705401223</v>
       </c>
       <c r="C4">
-        <v>1.272310542375919</v>
+        <v>0.9135254507465334</v>
       </c>
       <c r="D4">
-        <v>0.04372265169139666</v>
+        <v>0.01089839791584701</v>
       </c>
       <c r="E4">
-        <v>1.136682340159638</v>
+        <v>1.109399576780518</v>
       </c>
       <c r="F4">
-        <v>2.325642226844522</v>
+        <v>0.7822667999839155</v>
       </c>
       <c r="G4">
-        <v>0.0007626502162749738</v>
+        <v>0.7297689857623908</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01138838581976387</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.44899628231083</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3213089467855639</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8226923386850515</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.603711179932386</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.988191333683915</v>
+        <v>2.257289175266465</v>
       </c>
       <c r="C5">
-        <v>1.214459366301014</v>
+        <v>0.8770664674493958</v>
       </c>
       <c r="D5">
-        <v>0.0427681133824791</v>
+        <v>0.01083321896932077</v>
       </c>
       <c r="E5">
-        <v>1.082780939313196</v>
+        <v>1.059552250100751</v>
       </c>
       <c r="F5">
-        <v>2.236726706892398</v>
+        <v>0.755828110680369</v>
       </c>
       <c r="G5">
-        <v>0.0007657731276313751</v>
+        <v>0.7034958258725652</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01030537685694233</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4384628498483352</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3158925565887287</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8295063408872281</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.6110488346864891</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.957160301038869</v>
+        <v>2.238690557699499</v>
       </c>
       <c r="C6">
-        <v>1.204899052878147</v>
+        <v>0.8719592844028341</v>
       </c>
       <c r="D6">
-        <v>0.04261336900133017</v>
+        <v>0.010851524078479</v>
       </c>
       <c r="E6">
-        <v>1.073892618729843</v>
+        <v>1.051293161254804</v>
       </c>
       <c r="F6">
-        <v>2.222083345723263</v>
+        <v>0.7503998153161717</v>
       </c>
       <c r="G6">
-        <v>0.0007662936459570534</v>
+        <v>0.6979505848579919</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0101906552431954</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4361187851922779</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3142909096954725</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8306703964296744</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.6125342385192774</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.17341972112331</v>
+        <v>2.351221413989947</v>
       </c>
       <c r="C7">
-        <v>1.271527166919157</v>
+        <v>0.9155907124510065</v>
       </c>
       <c r="D7">
-        <v>0.04370952029491804</v>
+        <v>0.0109772647383064</v>
       </c>
       <c r="E7">
-        <v>1.135951113556857</v>
+        <v>1.108685013339397</v>
       </c>
       <c r="F7">
-        <v>2.32443475940984</v>
+        <v>0.7790136391765827</v>
       </c>
       <c r="G7">
-        <v>0.0007626922045646332</v>
+        <v>0.7261229249783412</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01152041356035483</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4471947421380094</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3192920316299066</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8227820138082933</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.6045201237700049</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.152831330387073</v>
+        <v>2.853047418474148</v>
       </c>
       <c r="C8">
-        <v>1.57338083618879</v>
+        <v>1.107851179408414</v>
       </c>
       <c r="D8">
-        <v>0.04916644379390789</v>
+        <v>0.01146328461280532</v>
       </c>
       <c r="E8">
-        <v>1.420429943501006</v>
+        <v>1.367320983468503</v>
       </c>
       <c r="F8">
-        <v>2.796101775785814</v>
+        <v>0.9110668007660934</v>
       </c>
       <c r="G8">
-        <v>0.0007470491205258695</v>
+        <v>0.8565633540875837</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01806386503106605</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4993845233423002</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3444242996211315</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7931222802947246</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.5702873973686557</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.205285102802918</v>
+        <v>3.851135167235043</v>
       </c>
       <c r="C9">
-        <v>2.207296911992273</v>
+        <v>1.491072225367816</v>
       </c>
       <c r="D9">
-        <v>0.06297667929959516</v>
+        <v>0.01230185355245794</v>
       </c>
       <c r="E9">
-        <v>2.035967584893328</v>
+        <v>1.901506410059554</v>
       </c>
       <c r="F9">
-        <v>3.821242214016763</v>
+        <v>1.189236995527907</v>
       </c>
       <c r="G9">
-        <v>0.0007168511519292466</v>
+        <v>1.132344697405188</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.03441531182454671</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6124450764323797</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4026063668155118</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7582741224654654</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.5087716055327576</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.845070618065961</v>
+        <v>4.588253252400023</v>
       </c>
       <c r="C10">
-        <v>2.715872661532785</v>
+        <v>1.783851066576517</v>
       </c>
       <c r="D10">
-        <v>0.07614627296960208</v>
+        <v>0.01298767321211614</v>
       </c>
       <c r="E10">
-        <v>2.548591105804121</v>
+        <v>2.318913189592323</v>
       </c>
       <c r="F10">
-        <v>4.670462671245957</v>
+        <v>1.403955803021105</v>
       </c>
       <c r="G10">
-        <v>0.0006944369681781018</v>
+        <v>1.345362378587083</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.04952462130604474</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7009804617761404</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4487734696399315</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7528293776041437</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.4688450600314056</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.635327468373021</v>
+        <v>4.916877338805421</v>
       </c>
       <c r="C11">
-        <v>2.961833196994235</v>
+        <v>1.924398032437296</v>
       </c>
       <c r="D11">
-        <v>0.08315016197219194</v>
+        <v>0.01345003278225931</v>
       </c>
       <c r="E11">
-        <v>2.802993401041761</v>
+        <v>2.516351263289621</v>
       </c>
       <c r="F11">
-        <v>5.088280900816756</v>
+        <v>1.5001145382045</v>
       </c>
       <c r="G11">
-        <v>0.0006840318689269082</v>
+        <v>1.440186312545023</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.05743675808424786</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7402361707788714</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4677557428375536</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7565430283087125</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.4533718703952161</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.942721393125453</v>
+        <v>5.046560815953057</v>
       </c>
       <c r="C12">
-        <v>3.057677624728683</v>
+        <v>1.9758282874987</v>
       </c>
       <c r="D12">
-        <v>0.08598976115047208</v>
+        <v>0.01355193980644387</v>
       </c>
       <c r="E12">
-        <v>2.903338625034053</v>
+        <v>2.592520034759701</v>
       </c>
       <c r="F12">
-        <v>5.252233081931365</v>
+        <v>1.539702766064309</v>
       </c>
       <c r="G12">
-        <v>0.0006800435769535976</v>
+        <v>1.479648989294532</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.06047415370921616</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7568775508433419</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4768745593752328</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7590458739257286</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.4469193190715615</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.876122751648381</v>
+        <v>5.019582201204855</v>
       </c>
       <c r="C13">
-        <v>3.036903934506654</v>
+        <v>1.964262292541946</v>
       </c>
       <c r="D13">
-        <v>0.08536905832958297</v>
+        <v>0.01351474206355618</v>
       </c>
       <c r="E13">
-        <v>2.881530403350837</v>
+        <v>2.576068120168159</v>
       </c>
       <c r="F13">
-        <v>5.216645060778319</v>
+        <v>1.531676337381143</v>
       </c>
       <c r="G13">
-        <v>0.0006809050137067865</v>
+        <v>1.471720618612522</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.05979108018700074</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.753578777197788</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4752489833511575</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7584541271926497</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.4481406604404086</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.660441818224172</v>
+        <v>4.92794940393452</v>
       </c>
       <c r="C14">
-        <v>2.969660065185394</v>
+        <v>1.928420876137523</v>
       </c>
       <c r="D14">
-        <v>0.0833797352258614</v>
+        <v>0.01345194226699675</v>
       </c>
       <c r="E14">
-        <v>2.811161875643194</v>
+        <v>2.522596076982055</v>
       </c>
       <c r="F14">
-        <v>5.101646289517674</v>
+        <v>1.503582878491102</v>
       </c>
       <c r="G14">
-        <v>0.0006837048367093849</v>
+        <v>1.443674425989599</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.05767384000799591</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7417260109064614</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4686493086486934</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7567255640579162</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.4527695394627997</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.529452400163109</v>
+        <v>4.869973958429114</v>
       </c>
       <c r="C15">
-        <v>2.928844443097944</v>
+        <v>1.90745175298855</v>
       </c>
       <c r="D15">
-        <v>0.082187083674512</v>
+        <v>0.01344354468561093</v>
       </c>
       <c r="E15">
-        <v>2.76861506047922</v>
+        <v>2.489994339329243</v>
       </c>
       <c r="F15">
-        <v>5.031994523931132</v>
+        <v>1.485417916526146</v>
       </c>
       <c r="G15">
-        <v>0.0006854129161260047</v>
+        <v>1.425400025716158</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05644486655447789</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7339180194461221</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4639510418060908</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7558167176101023</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.455942389288424</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.794457293623168</v>
+        <v>4.550822513688956</v>
       </c>
       <c r="C16">
-        <v>2.700140255925419</v>
+        <v>1.78242442396504</v>
       </c>
       <c r="D16">
-        <v>0.0757122159237511</v>
+        <v>0.01320705948644729</v>
       </c>
       <c r="E16">
-        <v>2.532467176579132</v>
+        <v>2.305951275077447</v>
       </c>
       <c r="F16">
-        <v>4.643886553724315</v>
+        <v>1.389058365345178</v>
       </c>
       <c r="G16">
-        <v>0.0006951113347688013</v>
+        <v>1.329364046746321</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04939113906711068</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6935129715593007</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4418057613050479</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7527276012974511</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.4724708188385875</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.356022400313179</v>
+        <v>4.355799509322082</v>
       </c>
       <c r="C17">
-        <v>2.563957169613616</v>
+        <v>1.706511079499933</v>
       </c>
       <c r="D17">
-        <v>0.07202542800560252</v>
+        <v>0.01306310501454533</v>
       </c>
       <c r="E17">
-        <v>2.393621210379479</v>
+        <v>2.195173274338984</v>
       </c>
       <c r="F17">
-        <v>4.414620018045866</v>
+        <v>1.330916407205848</v>
       </c>
       <c r="G17">
-        <v>0.000700996201373643</v>
+        <v>1.271460485380743</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.04530437946008714</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.669232528615737</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4285847331443406</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7525477316190035</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.4829059160543494</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.107887273911615</v>
+        <v>4.248693641943419</v>
       </c>
       <c r="C18">
-        <v>2.486958669987928</v>
+        <v>1.660786428931431</v>
       </c>
       <c r="D18">
-        <v>0.06999712707515471</v>
+        <v>0.01290494357087368</v>
       </c>
       <c r="E18">
-        <v>2.315684977685592</v>
+        <v>2.132232323224741</v>
       </c>
       <c r="F18">
-        <v>4.285629043112692</v>
+        <v>1.300422333858734</v>
       </c>
       <c r="G18">
-        <v>0.0007043627007559605</v>
+        <v>1.241473679172202</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.04288369176467466</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6569294128516106</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4228369601342052</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.753011818176816</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.4882335607931054</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.024520789632618</v>
+        <v>4.208754457413136</v>
       </c>
       <c r="C19">
-        <v>2.46110107830242</v>
+        <v>1.647141923914148</v>
       </c>
       <c r="D19">
-        <v>0.06932514880028862</v>
+        <v>0.0129098075043288</v>
       </c>
       <c r="E19">
-        <v>2.289603132477851</v>
+        <v>2.11098746267227</v>
       </c>
       <c r="F19">
-        <v>4.242417599886039</v>
+        <v>1.288133355521666</v>
       </c>
       <c r="G19">
-        <v>0.0007054998639371195</v>
+        <v>1.229082534927215</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.04219170857393273</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.65164378705677</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4195751914849595</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7532610333760061</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.490655885965424</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.402265041588464</v>
+        <v>4.376912049739985</v>
       </c>
       <c r="C20">
-        <v>2.578312564996224</v>
+        <v>1.714381488403205</v>
       </c>
       <c r="D20">
-        <v>0.07240808399684795</v>
+        <v>0.01307242908016804</v>
       </c>
       <c r="E20">
-        <v>2.408196456311927</v>
+        <v>2.20689587110175</v>
       </c>
       <c r="F20">
-        <v>4.438720399870306</v>
+        <v>1.337276478371805</v>
       </c>
       <c r="G20">
-        <v>0.000700371758192806</v>
+        <v>1.277821910933341</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0457186249530892</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6719159383835347</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4301149968099551</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.75250682615318</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.4817224852483122</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.723554924146242</v>
+        <v>4.949404756561705</v>
       </c>
       <c r="C21">
-        <v>2.989332102140054</v>
+        <v>1.941544639528217</v>
       </c>
       <c r="D21">
-        <v>0.08395856287238246</v>
+        <v>0.01355565022497629</v>
       </c>
       <c r="E21">
-        <v>2.831712771079808</v>
+        <v>2.53817764399021</v>
       </c>
       <c r="F21">
-        <v>5.135257270091955</v>
+        <v>1.508869368954322</v>
       </c>
       <c r="G21">
-        <v>0.0006828839377143962</v>
+        <v>1.448542574011668</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.05843002188812729</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7435235463515539</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4686333844799435</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7572015786313102</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.452303259998061</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.63578271843801</v>
+        <v>5.333383326136811</v>
       </c>
       <c r="C22">
-        <v>3.274147945324557</v>
+        <v>2.08959808447554</v>
       </c>
       <c r="D22">
-        <v>0.09262991615163685</v>
+        <v>0.01376761912348812</v>
       </c>
       <c r="E22">
-        <v>3.13257933503499</v>
+        <v>2.762711095844807</v>
       </c>
       <c r="F22">
-        <v>5.624745307471187</v>
+        <v>1.628278630367319</v>
       </c>
       <c r="G22">
-        <v>0.0006711614423943093</v>
+        <v>1.568051319409136</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.06742086343644615</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7942755519053719</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.497590689297617</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7668059676701375</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.432950677606911</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.14372403759216</v>
+        <v>5.134726316119441</v>
       </c>
       <c r="C23">
-        <v>3.120403996103335</v>
+        <v>2.007136739021348</v>
       </c>
       <c r="D23">
-        <v>0.08788155079380289</v>
+        <v>0.01355127934790801</v>
       </c>
       <c r="E23">
-        <v>2.969389340965037</v>
+        <v>2.642172798309176</v>
       </c>
       <c r="F23">
-        <v>5.359864553662931</v>
+        <v>1.5677575477619</v>
       </c>
       <c r="G23">
-        <v>0.0006774523018979739</v>
+        <v>1.507948597520709</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.06238915503755482</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7690299051605791</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4843594132296616</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7609966132458652</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.4420978258627315</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.381346638110699</v>
+        <v>4.377584059774506</v>
       </c>
       <c r="C24">
-        <v>2.571818500199072</v>
+        <v>1.705898659373418</v>
       </c>
       <c r="D24">
-        <v>0.07223480385280112</v>
+        <v>0.01290830542012955</v>
       </c>
       <c r="E24">
-        <v>2.401601174099241</v>
+        <v>2.201734975638885</v>
       </c>
       <c r="F24">
-        <v>4.427815927461694</v>
+        <v>1.339949768917904</v>
       </c>
       <c r="G24">
-        <v>0.0007006541199592535</v>
+        <v>1.281253998057849</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.04525190557496739</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6738594778780111</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4330976587919295</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7525235666083319</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.4806066042566002</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.631268494383733</v>
+        <v>3.570498267296443</v>
       </c>
       <c r="C25">
-        <v>2.029757027998585</v>
+        <v>1.390653972596226</v>
       </c>
       <c r="D25">
-        <v>0.05880737944612235</v>
+        <v>0.01222214960073842</v>
       </c>
       <c r="E25">
-        <v>1.86104022343963</v>
+        <v>1.753186020227488</v>
       </c>
       <c r="F25">
-        <v>3.530022729715739</v>
+        <v>1.106825924531648</v>
       </c>
       <c r="G25">
-        <v>0.0007250162108062833</v>
+        <v>1.049820793756695</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.0297451788585974</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5778314711576229</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3826258538683547</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7646684050206005</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.5261099153377984</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.9966996069532</v>
+        <v>2.826834506714704</v>
       </c>
       <c r="C2">
-        <v>1.156917478494364</v>
+        <v>1.22136657837234</v>
       </c>
       <c r="D2">
-        <v>0.0114819435364204</v>
+        <v>0.01515810487589775</v>
       </c>
       <c r="E2">
-        <v>1.43900959886858</v>
+        <v>1.432838364359171</v>
       </c>
       <c r="F2">
-        <v>0.9518068714633756</v>
+        <v>0.8700827521493579</v>
       </c>
       <c r="G2">
-        <v>0.8974281458001059</v>
+        <v>0.7898007546180992</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01989866865855516</v>
+        <v>0.0166915714418554</v>
       </c>
       <c r="J2">
-        <v>0.51635186465262</v>
+        <v>0.5263528048813839</v>
       </c>
       <c r="K2">
-        <v>0.3543204419373609</v>
+        <v>0.3048527059718182</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1793505478928878</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07466952625395606</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.56037868356972</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.6000397825672863</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.600698824971062</v>
+        <v>2.464159265999683</v>
       </c>
       <c r="C3">
-        <v>1.005436972696742</v>
+        <v>1.057001553304758</v>
       </c>
       <c r="D3">
-        <v>0.01111827334049664</v>
+        <v>0.01408845060054276</v>
       </c>
       <c r="E3">
-        <v>1.233109108666511</v>
+        <v>1.228937274085069</v>
       </c>
       <c r="F3">
-        <v>0.8458397521930578</v>
+        <v>0.7797033398095721</v>
       </c>
       <c r="G3">
-        <v>0.7926330485199173</v>
+        <v>0.7004199835534024</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01437554417266096</v>
+        <v>0.01234054634584192</v>
       </c>
       <c r="J3">
-        <v>0.4740977887499866</v>
+        <v>0.4908900547344217</v>
       </c>
       <c r="K3">
-        <v>0.3335024851272692</v>
+        <v>0.2923029869505491</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1815826642590288</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06261034926723141</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.586708392411289</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.6170673761403478</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.357809705401223</v>
+        <v>2.240984997047121</v>
       </c>
       <c r="C4">
-        <v>0.9135254507465334</v>
+        <v>0.957291536853262</v>
       </c>
       <c r="D4">
-        <v>0.01089839791584701</v>
+        <v>0.01343941619630939</v>
       </c>
       <c r="E4">
-        <v>1.109399576780518</v>
+        <v>1.106255134003007</v>
       </c>
       <c r="F4">
-        <v>0.7822667999839155</v>
+        <v>0.7252354472247191</v>
       </c>
       <c r="G4">
-        <v>0.7297689857623908</v>
+        <v>0.6468138348238313</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01138838581976387</v>
+        <v>0.009970258896331963</v>
       </c>
       <c r="J4">
-        <v>0.44899628231083</v>
+        <v>0.4693678142968736</v>
       </c>
       <c r="K4">
-        <v>0.3213089467855639</v>
+        <v>0.2849344176823756</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1829012491696815</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05605190843251151</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.603711179932386</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.6284119550706535</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.257289175266465</v>
+        <v>2.148409074793619</v>
       </c>
       <c r="C5">
-        <v>0.8770664674493958</v>
+        <v>0.9176956994087959</v>
       </c>
       <c r="D5">
-        <v>0.01083321896932077</v>
+        <v>0.01320482015012203</v>
       </c>
       <c r="E5">
-        <v>1.059552250100751</v>
+        <v>1.056786120978401</v>
       </c>
       <c r="F5">
-        <v>0.755828110680369</v>
+        <v>0.7024573270440726</v>
       </c>
       <c r="G5">
-        <v>0.7034958258725652</v>
+        <v>0.6243431559995543</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01030537685694233</v>
+        <v>0.009130115356190238</v>
       </c>
       <c r="J5">
-        <v>0.4384628498483352</v>
+        <v>0.460179012753315</v>
       </c>
       <c r="K5">
-        <v>0.3158925565887287</v>
+        <v>0.2814906466939604</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1831827634506347</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05343355808044237</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6110488346864891</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.6335253912301226</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.238690557699499</v>
+        <v>2.131219788226588</v>
       </c>
       <c r="C6">
-        <v>0.8719592844028341</v>
+        <v>0.9120824062169106</v>
       </c>
       <c r="D6">
-        <v>0.010851524078479</v>
+        <v>0.01320041102441394</v>
       </c>
       <c r="E6">
-        <v>1.051293161254804</v>
+        <v>1.04858894573637</v>
       </c>
       <c r="F6">
-        <v>0.7503998153161717</v>
+        <v>0.6977006470569904</v>
       </c>
       <c r="G6">
-        <v>0.6979505848579919</v>
+        <v>0.6195217875670807</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0101906552431954</v>
+        <v>0.009073634391424612</v>
       </c>
       <c r="J6">
-        <v>0.4361187851922779</v>
+        <v>0.4580786388593481</v>
       </c>
       <c r="K6">
-        <v>0.3142909096954725</v>
+        <v>0.2802927296380169</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1829336015748311</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05282655671264891</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6125342385192774</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.6347251443551656</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.351221413989947</v>
+        <v>2.232634439058813</v>
       </c>
       <c r="C7">
-        <v>0.9155907124510065</v>
+        <v>0.9576487753990364</v>
       </c>
       <c r="D7">
-        <v>0.0109772647383064</v>
+        <v>0.01359888786148389</v>
       </c>
       <c r="E7">
-        <v>1.108685013339397</v>
+        <v>1.105519641698493</v>
       </c>
       <c r="F7">
-        <v>0.7790136391765827</v>
+        <v>0.7203704128213957</v>
       </c>
       <c r="G7">
-        <v>0.7261229249783412</v>
+        <v>0.6475731253759704</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01152041356035483</v>
+        <v>0.01014262800137722</v>
       </c>
       <c r="J7">
-        <v>0.4471947421380094</v>
+        <v>0.4600913770396176</v>
       </c>
       <c r="K7">
-        <v>0.3192920316299066</v>
+        <v>0.2824390025912997</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1817814617164437</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05527483966714541</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6045201237700049</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.6298548456999811</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.853047418474148</v>
+        <v>2.688018180788276</v>
       </c>
       <c r="C8">
-        <v>1.107851179408414</v>
+        <v>1.162151564731971</v>
       </c>
       <c r="D8">
-        <v>0.01146328461280532</v>
+        <v>0.01515053491038643</v>
       </c>
       <c r="E8">
-        <v>1.367320983468503</v>
+        <v>1.361775365608821</v>
       </c>
       <c r="F8">
-        <v>0.9110668007660934</v>
+        <v>0.8289016039454253</v>
       </c>
       <c r="G8">
-        <v>0.8565633540875837</v>
+        <v>0.7683854856972658</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01806386503106605</v>
+        <v>0.01529751270728763</v>
       </c>
       <c r="J8">
-        <v>0.4993845233423002</v>
+        <v>0.4869540346168719</v>
       </c>
       <c r="K8">
-        <v>0.3444242996211315</v>
+        <v>0.2957770253442042</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1781337907102802</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0687651995926899</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5702873973686557</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.6086115352996089</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.851135167235043</v>
+        <v>3.59548121734241</v>
       </c>
       <c r="C9">
-        <v>1.491072225367816</v>
+        <v>1.576225549174978</v>
       </c>
       <c r="D9">
-        <v>0.01230185355245794</v>
+        <v>0.01783207002031872</v>
       </c>
       <c r="E9">
-        <v>1.901506410059554</v>
+        <v>1.889303005836126</v>
       </c>
       <c r="F9">
-        <v>1.189236995527907</v>
+        <v>1.063059402804001</v>
       </c>
       <c r="G9">
-        <v>1.132344697405188</v>
+        <v>1.008016187320663</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.03441531182454671</v>
+        <v>0.02792258673467352</v>
       </c>
       <c r="J9">
-        <v>0.6124450764323797</v>
+        <v>0.571937197005596</v>
       </c>
       <c r="K9">
-        <v>0.4026063668155118</v>
+        <v>0.3307783932090516</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1731048380285323</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1041659227476472</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5087716055327576</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.5709102141060995</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.588253252400023</v>
+        <v>4.247584928619972</v>
       </c>
       <c r="C10">
-        <v>1.783851066576517</v>
+        <v>1.881397241723732</v>
       </c>
       <c r="D10">
-        <v>0.01298767321211614</v>
+        <v>0.02034840790740589</v>
       </c>
       <c r="E10">
-        <v>2.318913189592323</v>
+        <v>2.299385510789932</v>
       </c>
       <c r="F10">
-        <v>1.403955803021105</v>
+        <v>1.231051731678932</v>
       </c>
       <c r="G10">
-        <v>1.345362378587083</v>
+        <v>1.218053077540873</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.04952462130604474</v>
+        <v>0.03937627644140562</v>
       </c>
       <c r="J10">
-        <v>0.7009804617761404</v>
+        <v>0.5924185517091161</v>
       </c>
       <c r="K10">
-        <v>0.4487734696399315</v>
+        <v>0.3540987869393319</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1674530077856353</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1330417851684942</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.4688450600314056</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.5520006313108041</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.916877338805421</v>
+        <v>4.51326780859614</v>
       </c>
       <c r="C11">
-        <v>1.924398032437296</v>
+        <v>2.008865324156943</v>
       </c>
       <c r="D11">
-        <v>0.01345003278225931</v>
+        <v>0.02252518731811293</v>
       </c>
       <c r="E11">
-        <v>2.516351263289621</v>
+        <v>2.492179458820885</v>
       </c>
       <c r="F11">
-        <v>1.5001145382045</v>
+        <v>1.28582524208214</v>
       </c>
       <c r="G11">
-        <v>1.440186312545023</v>
+        <v>1.356783177153659</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.05743675808424786</v>
+        <v>0.04525065473645373</v>
       </c>
       <c r="J11">
-        <v>0.7402361707788714</v>
+        <v>0.5282525018594697</v>
       </c>
       <c r="K11">
-        <v>0.4677557428375536</v>
+        <v>0.3553720948883807</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1614522586675342</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1430898441202011</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.4533718703952161</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.5526625018926552</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.046560815953057</v>
+        <v>4.61546578037769</v>
       </c>
       <c r="C12">
-        <v>1.9758282874987</v>
+        <v>2.052870324223704</v>
       </c>
       <c r="D12">
-        <v>0.01355193980644387</v>
+        <v>0.02337782294249635</v>
       </c>
       <c r="E12">
-        <v>2.592520034759701</v>
+        <v>2.566356817544289</v>
       </c>
       <c r="F12">
-        <v>1.539702766064309</v>
+        <v>1.306808712240127</v>
       </c>
       <c r="G12">
-        <v>1.479648989294532</v>
+        <v>1.418911307081686</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.06047415370921616</v>
+        <v>0.0473862517021324</v>
       </c>
       <c r="J12">
-        <v>0.7568775508433419</v>
+        <v>0.4981971076829126</v>
       </c>
       <c r="K12">
-        <v>0.4768745593752328</v>
+        <v>0.3565018621737224</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1594190841958181</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1472395261133457</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.4469193190715615</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.5528943400453983</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.019582201204855</v>
+        <v>4.594485650534239</v>
       </c>
       <c r="C13">
-        <v>1.964262292541946</v>
+        <v>2.043011185251032</v>
       </c>
       <c r="D13">
-        <v>0.01351474206355618</v>
+        <v>0.02316786454202813</v>
       </c>
       <c r="E13">
-        <v>2.576068120168159</v>
+        <v>2.550342242765751</v>
       </c>
       <c r="F13">
-        <v>1.531676337381143</v>
+        <v>1.302855304180056</v>
       </c>
       <c r="G13">
-        <v>1.471720618612522</v>
+        <v>1.405772804900977</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.05979108018700074</v>
+        <v>0.04688867035585176</v>
       </c>
       <c r="J13">
-        <v>0.753578777197788</v>
+        <v>0.505174410034769</v>
       </c>
       <c r="K13">
-        <v>0.4752489833511575</v>
+        <v>0.3565810222826755</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1599673570047457</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1464774377461495</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.4481406604404086</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.5525654970952587</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.92794940393452</v>
+        <v>4.522116317109749</v>
       </c>
       <c r="C14">
-        <v>1.928420876137523</v>
+        <v>2.012325261372382</v>
       </c>
       <c r="D14">
-        <v>0.01345194226699675</v>
+        <v>0.02258414227322447</v>
       </c>
       <c r="E14">
-        <v>2.522596076982055</v>
+        <v>2.49826427031806</v>
       </c>
       <c r="F14">
-        <v>1.503582878491102</v>
+        <v>1.287794701558397</v>
       </c>
       <c r="G14">
-        <v>1.443674425989599</v>
+        <v>1.361988866387321</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05767384000799591</v>
+        <v>0.04540989725693478</v>
       </c>
       <c r="J14">
-        <v>0.7417260109064614</v>
+        <v>0.5260076247929106</v>
       </c>
       <c r="K14">
-        <v>0.4686493086486934</v>
+        <v>0.3556034582782743</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1613327111040661</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1434872996533585</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.4527695394627997</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.5525632427732532</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.869973958429114</v>
+        <v>4.475638125798469</v>
       </c>
       <c r="C15">
-        <v>1.90745175298855</v>
+        <v>1.994201740157848</v>
       </c>
       <c r="D15">
-        <v>0.01344354468561093</v>
+        <v>0.02228276172643362</v>
       </c>
       <c r="E15">
-        <v>2.489994339329243</v>
+        <v>2.466490071078383</v>
       </c>
       <c r="F15">
-        <v>1.485417916526146</v>
+        <v>1.27736149191098</v>
       </c>
       <c r="G15">
-        <v>1.425400025716158</v>
+        <v>1.334999554460495</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.05644486655447789</v>
+        <v>0.04458648763881712</v>
       </c>
       <c r="J15">
-        <v>0.7339180194461221</v>
+        <v>0.5374435562006283</v>
       </c>
       <c r="K15">
-        <v>0.4639510418060908</v>
+        <v>0.3543310221983802</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1619355424959146</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.141387183215997</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.455942389288424</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.5531457430665085</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.550822513688956</v>
+        <v>4.214927598680276</v>
       </c>
       <c r="C16">
-        <v>1.78242442396504</v>
+        <v>1.88061885870394</v>
       </c>
       <c r="D16">
-        <v>0.01320705948644729</v>
+        <v>0.02054106818588153</v>
       </c>
       <c r="E16">
-        <v>2.305951275077447</v>
+        <v>2.286729100675586</v>
       </c>
       <c r="F16">
-        <v>1.389058365345178</v>
+        <v>1.219304541570921</v>
       </c>
       <c r="G16">
-        <v>1.329364046746321</v>
+        <v>1.200789225727192</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.04939113906711068</v>
+        <v>0.03955621006363685</v>
       </c>
       <c r="J16">
-        <v>0.6935129715593007</v>
+        <v>0.5912932638143076</v>
       </c>
       <c r="K16">
-        <v>0.4418057613050479</v>
+        <v>0.349055868738148</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1660780628263723</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1303825533055978</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.4724708188385875</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.5556717786544638</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.355799509322082</v>
+        <v>4.050172664344927</v>
       </c>
       <c r="C17">
-        <v>1.706511079499933</v>
+        <v>1.807597733628427</v>
       </c>
       <c r="D17">
-        <v>0.01306310501454533</v>
+        <v>0.0196657931546973</v>
       </c>
       <c r="E17">
-        <v>2.195173274338984</v>
+        <v>2.178226982239707</v>
       </c>
       <c r="F17">
-        <v>1.330916407205848</v>
+        <v>1.180089808619115</v>
       </c>
       <c r="G17">
-        <v>1.271460485380743</v>
+        <v>1.129574051865063</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.04530437946008714</v>
+        <v>0.03658847644916996</v>
       </c>
       <c r="J17">
-        <v>0.669232528615737</v>
+        <v>0.6101002425335764</v>
       </c>
       <c r="K17">
-        <v>0.4285847331443406</v>
+        <v>0.3444449042662754</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1681123801114808</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.123247152836985</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.4829059160543494</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.5588887075307056</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.248693641943419</v>
+        <v>3.958215652759009</v>
       </c>
       <c r="C18">
-        <v>1.660786428931431</v>
+        <v>1.762044680198471</v>
       </c>
       <c r="D18">
-        <v>0.01290494357087368</v>
+        <v>0.01913253472714871</v>
       </c>
       <c r="E18">
-        <v>2.132232323224741</v>
+        <v>2.116472104941494</v>
       </c>
       <c r="F18">
-        <v>1.300422333858734</v>
+        <v>1.15865463701482</v>
       </c>
       <c r="G18">
-        <v>1.241473679172202</v>
+        <v>1.095083480942804</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.04288369176467466</v>
+        <v>0.034706117795543</v>
       </c>
       <c r="J18">
-        <v>0.6569294128516106</v>
+        <v>0.6167399006752419</v>
       </c>
       <c r="K18">
-        <v>0.4228369601342052</v>
+        <v>0.3427806911923952</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.169633687172432</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1196014248629567</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.4882335607931054</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.5602492104267682</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.208754457413136</v>
+        <v>3.923327177293856</v>
       </c>
       <c r="C19">
-        <v>1.647141923914148</v>
+        <v>1.748252690058109</v>
       </c>
       <c r="D19">
-        <v>0.0129098075043288</v>
+        <v>0.01903512094895632</v>
       </c>
       <c r="E19">
-        <v>2.11098746267227</v>
+        <v>2.095616951140329</v>
       </c>
       <c r="F19">
-        <v>1.288133355521666</v>
+        <v>1.149339954239409</v>
       </c>
       <c r="G19">
-        <v>1.229082534927215</v>
+        <v>1.081933991592109</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.04219170857393273</v>
+        <v>0.03423828134071805</v>
       </c>
       <c r="J19">
-        <v>0.65164378705677</v>
+        <v>0.6169892657215996</v>
       </c>
       <c r="K19">
-        <v>0.4195751914849595</v>
+        <v>0.3409960419232334</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1696996460094269</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1178950844328952</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.490655885965424</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.561614403663846</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.376912049739985</v>
+        <v>4.068241501933642</v>
       </c>
       <c r="C20">
-        <v>1.714381488403205</v>
+        <v>1.815308220575787</v>
       </c>
       <c r="D20">
-        <v>0.01307242908016804</v>
+        <v>0.01974469748328644</v>
       </c>
       <c r="E20">
-        <v>2.20689587110175</v>
+        <v>2.189718814185596</v>
       </c>
       <c r="F20">
-        <v>1.337276478371805</v>
+        <v>1.184584531884198</v>
       </c>
       <c r="G20">
-        <v>1.277821910933341</v>
+        <v>1.13697210529179</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0457186249530892</v>
+        <v>0.03688285625151533</v>
       </c>
       <c r="J20">
-        <v>0.6719159383835347</v>
+        <v>0.6087704571841925</v>
       </c>
       <c r="K20">
-        <v>0.4301149968099551</v>
+        <v>0.3451022683385645</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1679572333019337</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1240663671961251</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.4817224852483122</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.5584032094676985</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.949404756561705</v>
+        <v>4.530210387693785</v>
       </c>
       <c r="C21">
-        <v>1.941544639528217</v>
+        <v>2.017468248469072</v>
       </c>
       <c r="D21">
-        <v>0.01355565022497629</v>
+        <v>0.02316530489746071</v>
       </c>
       <c r="E21">
-        <v>2.53817764399021</v>
+        <v>2.513252992770305</v>
       </c>
       <c r="F21">
-        <v>1.508869368954322</v>
+        <v>1.282754290237548</v>
       </c>
       <c r="G21">
-        <v>1.448542574011668</v>
+        <v>1.387645015225189</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.05843002188812729</v>
+        <v>0.04596972025527268</v>
       </c>
       <c r="J21">
-        <v>0.7435235463515539</v>
+        <v>0.4947757028604656</v>
       </c>
       <c r="K21">
-        <v>0.4686333844799435</v>
+        <v>0.3517212549348869</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1594933921691855</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.142614826908428</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.452303259998061</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.5559209490928083</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.333383326136811</v>
+        <v>4.835500873510682</v>
       </c>
       <c r="C22">
-        <v>2.08959808447554</v>
+        <v>2.145752942178717</v>
       </c>
       <c r="D22">
-        <v>0.01376761912348812</v>
+        <v>0.02548920488645123</v>
       </c>
       <c r="E22">
-        <v>2.762711095844807</v>
+        <v>2.731717954877723</v>
       </c>
       <c r="F22">
-        <v>1.628278630367319</v>
+        <v>1.349387455083814</v>
       </c>
       <c r="G22">
-        <v>1.568051319409136</v>
+        <v>1.569606116552166</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.06742086343644615</v>
+        <v>0.05219832176001127</v>
       </c>
       <c r="J22">
-        <v>0.7942755519053719</v>
+        <v>0.4222095447156988</v>
       </c>
       <c r="K22">
-        <v>0.497590689297617</v>
+        <v>0.3577251353689164</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1545392231897047</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1559787222963749</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.432950677606911</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.5553234508517235</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.134726316119441</v>
+        <v>4.684597669112293</v>
       </c>
       <c r="C23">
-        <v>2.007136739021348</v>
+        <v>2.078680031580348</v>
       </c>
       <c r="D23">
-        <v>0.01355127934790801</v>
+        <v>0.02387465021187651</v>
       </c>
       <c r="E23">
-        <v>2.642172798309176</v>
+        <v>2.614646520323305</v>
       </c>
       <c r="F23">
-        <v>1.5677575477619</v>
+        <v>1.321824017892993</v>
       </c>
       <c r="G23">
-        <v>1.507948597520709</v>
+        <v>1.463588323335017</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.06238915503755482</v>
+        <v>0.04864480930727577</v>
       </c>
       <c r="J23">
-        <v>0.7690299051605791</v>
+        <v>0.4780828140330726</v>
       </c>
       <c r="K23">
-        <v>0.4843594132296616</v>
+        <v>0.3582608318301013</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1584589335360107</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1503777021798456</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.4420978258627315</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.5523337907420327</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.377584059774506</v>
+        <v>4.069612311062826</v>
       </c>
       <c r="C24">
-        <v>1.705898659373418</v>
+        <v>1.80680977806486</v>
       </c>
       <c r="D24">
-        <v>0.01290830542012955</v>
+        <v>0.01950815132926564</v>
       </c>
       <c r="E24">
-        <v>2.201734975638885</v>
+        <v>2.184644229314543</v>
       </c>
       <c r="F24">
-        <v>1.339949768917904</v>
+        <v>1.187615490944381</v>
       </c>
       <c r="G24">
-        <v>1.281253998057849</v>
+        <v>1.139378607686609</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.04525190557496739</v>
+        <v>0.03634240681850898</v>
       </c>
       <c r="J24">
-        <v>0.6738594778780111</v>
+        <v>0.6122014813386158</v>
       </c>
       <c r="K24">
-        <v>0.4330976587919295</v>
+        <v>0.3479285922237665</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1691594632825861</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1249448101949753</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.4806066042566002</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.5563745900547943</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.570498267296443</v>
+        <v>3.34397087645624</v>
       </c>
       <c r="C25">
-        <v>1.390653972596226</v>
+        <v>1.469997095338101</v>
       </c>
       <c r="D25">
-        <v>0.01222214960073842</v>
+        <v>0.01718248598924177</v>
       </c>
       <c r="E25">
-        <v>1.753186020227488</v>
+        <v>1.743159231118312</v>
       </c>
       <c r="F25">
-        <v>1.106825924531648</v>
+        <v>0.9962041496446972</v>
       </c>
       <c r="G25">
-        <v>1.049820793756695</v>
+        <v>0.9300657340878047</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.0297451788585974</v>
+        <v>0.02451692643944803</v>
       </c>
       <c r="J25">
-        <v>0.5778314711576229</v>
+        <v>0.5565553488100647</v>
       </c>
       <c r="K25">
-        <v>0.3826258538683547</v>
+        <v>0.3188708141009826</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1737085281055251</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.09301710244907468</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.5261099153377984</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.5815884324807996</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
